--- a/data/manualDetection/resolution/originalFiles/kai_results_210301_EV38_1_Collagen_ITSwithAsc+Dexa+IGF+TGF_63x_z-stack_4_2048x2048.xlsx
+++ b/data/manualDetection/resolution/originalFiles/kai_results_210301_EV38_1_Collagen_ITSwithAsc+Dexa+IGF+TGF_63x_z-stack_4_2048x2048.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhD\Daten\Cilia\manualDetection\210301_EV38_1_Collagen_ITSwithAsc+Dexa+IGF+TGF_63x_z-stack_resolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286F046F-2594-4DC2-994B-77EA6FAB7E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3CDC15-E10C-4C27-8A45-8CBFD4C72F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D4681C3C-432B-4006-A065-1F556E10F683}"/>
   </bookViews>
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAF1B93-8D5A-4DDF-9B98-D3A4298A3DAA}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -424,13 +424,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.6</v>
+        <v>19.847000000000001</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11.364000000000001</v>
+        <v>14.95</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -452,13 +452,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13.276</v>
+        <v>12.105</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -466,13 +466,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>19.771999999999998</v>
+        <v>16.033999999999999</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -480,13 +480,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>15.7</v>
+        <v>17.843</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -494,13 +494,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5.3360000000000003</v>
+        <v>22.361999999999998</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,13 +508,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>15.042</v>
+        <v>10.693</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,13 +522,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>11.241</v>
+        <v>19.23</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -536,13 +536,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>14.535</v>
+        <v>11.377000000000001</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -550,97 +550,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>16.986000000000001</v>
+        <v>10.561</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>9.4309999999999992</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>19.800999999999998</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>19.648</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>25.466000000000001</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>18.992000000000001</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>16.108000000000001</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
